--- a/natmiOut/OldD4/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Cd38-Pecam1.xlsx
@@ -534,52 +534,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>44.9968356943629</v>
+        <v>46.027697</v>
       </c>
       <c r="H2">
-        <v>44.9968356943629</v>
+        <v>138.083091</v>
       </c>
       <c r="I2">
-        <v>0.5797628692958959</v>
+        <v>0.5508655786307046</v>
       </c>
       <c r="J2">
-        <v>0.5797628692958959</v>
+        <v>0.5524593235722315</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N2">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O2">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P2">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q2">
-        <v>13572.53563468591</v>
+        <v>15120.38780994591</v>
       </c>
       <c r="R2">
-        <v>13572.53563468591</v>
+        <v>136083.4902895132</v>
       </c>
       <c r="S2">
-        <v>0.5541049148947508</v>
+        <v>0.5225083131215063</v>
       </c>
       <c r="T2">
-        <v>0.5541049148947508</v>
+        <v>0.5256138067783406</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,52 +596,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>44.9968356943629</v>
+        <v>46.027697</v>
       </c>
       <c r="H3">
-        <v>44.9968356943629</v>
+        <v>138.083091</v>
       </c>
       <c r="I3">
-        <v>0.5797628692958959</v>
+        <v>0.5508655786307046</v>
       </c>
       <c r="J3">
-        <v>0.5797628692958959</v>
+        <v>0.5524593235722315</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N3">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O3">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P3">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q3">
-        <v>190.6822320675754</v>
+        <v>220.087554889201</v>
       </c>
       <c r="R3">
-        <v>190.6822320675754</v>
+        <v>1980.787994002809</v>
       </c>
       <c r="S3">
-        <v>0.007784688492673833</v>
+        <v>0.007605464786329758</v>
       </c>
       <c r="T3">
-        <v>0.007784688492673833</v>
+        <v>0.007650667364084211</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,52 +658,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>44.9968356943629</v>
+        <v>46.027697</v>
       </c>
       <c r="H4">
-        <v>44.9968356943629</v>
+        <v>138.083091</v>
       </c>
       <c r="I4">
-        <v>0.5797628692958959</v>
+        <v>0.5508655786307046</v>
       </c>
       <c r="J4">
-        <v>0.5797628692958959</v>
+        <v>0.5524593235722315</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N4">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O4">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P4">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q4">
-        <v>97.86946872637317</v>
+        <v>234.4821494510213</v>
       </c>
       <c r="R4">
-        <v>97.86946872637317</v>
+        <v>2110.339345059192</v>
       </c>
       <c r="S4">
-        <v>0.003995565390215786</v>
+        <v>0.008102892194746979</v>
       </c>
       <c r="T4">
-        <v>0.003995565390215786</v>
+        <v>0.008151051199457297</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,52 +720,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>44.9968356943629</v>
+        <v>46.027697</v>
       </c>
       <c r="H5">
-        <v>44.9968356943629</v>
+        <v>138.083091</v>
       </c>
       <c r="I5">
-        <v>0.5797628692958959</v>
+        <v>0.5508655786307046</v>
       </c>
       <c r="J5">
-        <v>0.5797628692958959</v>
+        <v>0.5524593235722315</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N5">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O5">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P5">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q5">
-        <v>200.3079250522025</v>
+        <v>221.0240497549286</v>
       </c>
       <c r="R5">
-        <v>200.3079250522025</v>
+        <v>1989.216447794358</v>
       </c>
       <c r="S5">
-        <v>0.008177661768678294</v>
+        <v>0.00763782681028634</v>
       </c>
       <c r="T5">
-        <v>0.008177661768678294</v>
+        <v>0.007683221729593256</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,52 +782,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>44.9968356943629</v>
+        <v>46.027697</v>
       </c>
       <c r="H6">
-        <v>44.9968356943629</v>
+        <v>138.083091</v>
       </c>
       <c r="I6">
-        <v>0.5797628692958959</v>
+        <v>0.5508655786307046</v>
       </c>
       <c r="J6">
-        <v>0.5797628692958959</v>
+        <v>0.5524593235722315</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N6">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O6">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P6">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q6">
-        <v>139.6197307912761</v>
+        <v>145.011087897046</v>
       </c>
       <c r="R6">
-        <v>139.6197307912761</v>
+        <v>870.0665273822759</v>
       </c>
       <c r="S6">
-        <v>0.005700038749577272</v>
+        <v>0.00501108171783532</v>
       </c>
       <c r="T6">
-        <v>0.005700038749577272</v>
+        <v>0.003360576500756103</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,52 +844,52 @@
         <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.33678800021179</v>
+        <v>2.612839666666666</v>
       </c>
       <c r="H7">
-        <v>2.33678800021179</v>
+        <v>7.838519</v>
       </c>
       <c r="I7">
-        <v>0.03010840418071287</v>
+        <v>0.03127081146049064</v>
       </c>
       <c r="J7">
-        <v>0.03010840418071287</v>
+        <v>0.03136128307374061</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N7">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O7">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P7">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q7">
-        <v>704.8526393946914</v>
+        <v>858.3342556810911</v>
       </c>
       <c r="R7">
-        <v>704.8526393946914</v>
+        <v>7725.008301129821</v>
       </c>
       <c r="S7">
-        <v>0.02877592826258762</v>
+        <v>0.02966106356976667</v>
       </c>
       <c r="T7">
-        <v>0.02877592826258762</v>
+        <v>0.02983735214251795</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,52 +906,52 @@
         <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.33678800021179</v>
+        <v>2.612839666666666</v>
       </c>
       <c r="H8">
-        <v>2.33678800021179</v>
+        <v>7.838519</v>
       </c>
       <c r="I8">
-        <v>0.03010840418071287</v>
+        <v>0.03127081146049064</v>
       </c>
       <c r="J8">
-        <v>0.03010840418071287</v>
+        <v>0.03136128307374061</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N8">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O8">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P8">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q8">
-        <v>9.902561921813795</v>
+        <v>12.49364037384233</v>
       </c>
       <c r="R8">
-        <v>9.902561921813795</v>
+        <v>112.442763364581</v>
       </c>
       <c r="S8">
-        <v>0.0004042765757714374</v>
+        <v>0.000431737005593804</v>
       </c>
       <c r="T8">
-        <v>0.0004042765757714374</v>
+        <v>0.0004343030059781469</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.33678800021179</v>
+        <v>2.612839666666666</v>
       </c>
       <c r="H9">
-        <v>2.33678800021179</v>
+        <v>7.838519</v>
       </c>
       <c r="I9">
-        <v>0.03010840418071287</v>
+        <v>0.03127081146049064</v>
       </c>
       <c r="J9">
-        <v>0.03010840418071287</v>
+        <v>0.03136128307374061</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N9">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O9">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P9">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q9">
-        <v>5.0825840656956</v>
+        <v>13.31077375456978</v>
       </c>
       <c r="R9">
-        <v>5.0825840656956</v>
+        <v>119.796963791128</v>
       </c>
       <c r="S9">
-        <v>0.0002074987966117688</v>
+        <v>0.0004599743094067607</v>
       </c>
       <c r="T9">
-        <v>0.0002074987966117688</v>
+        <v>0.0004627081363417538</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>23</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>2.33678800021179</v>
+        <v>2.612839666666666</v>
       </c>
       <c r="H10">
-        <v>2.33678800021179</v>
+        <v>7.838519</v>
       </c>
       <c r="I10">
-        <v>0.03010840418071287</v>
+        <v>0.03127081146049064</v>
       </c>
       <c r="J10">
-        <v>0.03010840418071287</v>
+        <v>0.03136128307374061</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N10">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O10">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P10">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q10">
-        <v>10.40244604728837</v>
+        <v>12.54680208064689</v>
       </c>
       <c r="R10">
-        <v>10.40244604728837</v>
+        <v>112.921218725822</v>
       </c>
       <c r="S10">
-        <v>0.0004246845716138247</v>
+        <v>0.0004335740903362228</v>
       </c>
       <c r="T10">
-        <v>0.0004246845716138247</v>
+        <v>0.0004361510093124262</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,52 +1092,52 @@
         <v>24</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>2.33678800021179</v>
+        <v>2.612839666666666</v>
       </c>
       <c r="H11">
-        <v>2.33678800021179</v>
+        <v>7.838519</v>
       </c>
       <c r="I11">
-        <v>0.03010840418071287</v>
+        <v>0.03127081146049064</v>
       </c>
       <c r="J11">
-        <v>0.03010840418071287</v>
+        <v>0.03136128307374061</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N11">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O11">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P11">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q11">
-        <v>7.250770114635592</v>
+        <v>8.231798400947332</v>
       </c>
       <c r="R11">
-        <v>7.250770114635592</v>
+        <v>49.390790405684</v>
       </c>
       <c r="S11">
-        <v>0.000296015974128222</v>
+        <v>0.0002844624853871847</v>
       </c>
       <c r="T11">
-        <v>0.000296015974128222</v>
+        <v>0.0001907687795903282</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,52 +1154,52 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.3935895008374</v>
+        <v>15.68554033333333</v>
       </c>
       <c r="H12">
-        <v>14.3935895008374</v>
+        <v>47.05662099999999</v>
       </c>
       <c r="I12">
-        <v>0.1854545685202082</v>
+        <v>0.1877266258152547</v>
       </c>
       <c r="J12">
-        <v>0.1854545685202082</v>
+        <v>0.1882697498946838</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N12">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O12">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P12">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q12">
-        <v>4341.583211275245</v>
+        <v>5152.798604035048</v>
       </c>
       <c r="R12">
-        <v>4341.583211275245</v>
+        <v>46375.18743631543</v>
       </c>
       <c r="S12">
-        <v>0.1772471010976144</v>
+        <v>0.1780629002569767</v>
       </c>
       <c r="T12">
-        <v>0.1772471010976144</v>
+        <v>0.179121205346827</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,52 +1216,52 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>14.3935895008374</v>
+        <v>15.68554033333333</v>
       </c>
       <c r="H13">
-        <v>14.3935895008374</v>
+        <v>47.05662099999999</v>
       </c>
       <c r="I13">
-        <v>0.1854545685202082</v>
+        <v>0.1877266258152547</v>
       </c>
       <c r="J13">
-        <v>0.1854545685202082</v>
+        <v>0.1882697498946838</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N13">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O13">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P13">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q13">
-        <v>60.99543959327635</v>
+        <v>75.00249728069765</v>
       </c>
       <c r="R13">
-        <v>60.99543959327635</v>
+        <v>675.0224755262789</v>
       </c>
       <c r="S13">
-        <v>0.002490166448959368</v>
+        <v>0.002591826931069825</v>
       </c>
       <c r="T13">
-        <v>0.002490166448959368</v>
+        <v>0.002607231283291447</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,52 +1278,52 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>14.3935895008374</v>
+        <v>15.68554033333333</v>
       </c>
       <c r="H14">
-        <v>14.3935895008374</v>
+        <v>47.05662099999999</v>
       </c>
       <c r="I14">
-        <v>0.1854545685202082</v>
+        <v>0.1877266258152547</v>
       </c>
       <c r="J14">
-        <v>0.1854545685202082</v>
+        <v>0.1882697498946838</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N14">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O14">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P14">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q14">
-        <v>31.30648935140426</v>
+        <v>79.9079565649502</v>
       </c>
       <c r="R14">
-        <v>31.30648935140426</v>
+        <v>719.1716090845518</v>
       </c>
       <c r="S14">
-        <v>0.00127810160788093</v>
+        <v>0.002761342639788291</v>
       </c>
       <c r="T14">
-        <v>0.00127810160788093</v>
+        <v>0.002777754497431241</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>14.3935895008374</v>
+        <v>15.68554033333333</v>
       </c>
       <c r="H15">
-        <v>14.3935895008374</v>
+        <v>47.05662099999999</v>
       </c>
       <c r="I15">
-        <v>0.1854545685202082</v>
+        <v>0.1877266258152547</v>
       </c>
       <c r="J15">
-        <v>0.1854545685202082</v>
+        <v>0.1882697498946838</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N15">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O15">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P15">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q15">
-        <v>64.0745066286317</v>
+        <v>75.32164051283308</v>
       </c>
       <c r="R15">
-        <v>64.0745066286317</v>
+        <v>677.8947646154978</v>
       </c>
       <c r="S15">
-        <v>0.002615870755324985</v>
+        <v>0.002602855417505705</v>
       </c>
       <c r="T15">
-        <v>0.002615870755324985</v>
+        <v>0.002618325316808228</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>14.3935895008374</v>
+        <v>15.68554033333333</v>
       </c>
       <c r="H16">
-        <v>14.3935895008374</v>
+        <v>47.05662099999999</v>
       </c>
       <c r="I16">
-        <v>0.1854545685202082</v>
+        <v>0.1877266258152547</v>
       </c>
       <c r="J16">
-        <v>0.1854545685202082</v>
+        <v>0.1882697498946838</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N16">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O16">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P16">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q16">
-        <v>44.66156475707064</v>
+        <v>49.41757715989266</v>
       </c>
       <c r="R16">
-        <v>44.66156475707064</v>
+        <v>296.505462959356</v>
       </c>
       <c r="S16">
-        <v>0.00182332861042849</v>
+        <v>0.001707700569914136</v>
       </c>
       <c r="T16">
-        <v>0.00182332861042849</v>
+        <v>0.001145233450325834</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,52 +1464,52 @@
         <v>20</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>15.1634651188785</v>
+        <v>18.50602233333333</v>
       </c>
       <c r="H17">
-        <v>15.1634651188785</v>
+        <v>55.518067</v>
       </c>
       <c r="I17">
-        <v>0.1953740504221851</v>
+        <v>0.2214825282439052</v>
       </c>
       <c r="J17">
-        <v>0.1953740504221851</v>
+        <v>0.2221233137144781</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N17">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O17">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P17">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q17">
-        <v>4573.803190722549</v>
+        <v>6079.344671525061</v>
       </c>
       <c r="R17">
-        <v>4573.803190722549</v>
+        <v>54714.10204372556</v>
       </c>
       <c r="S17">
-        <v>0.1867275869413701</v>
+        <v>0.2100811281515763</v>
       </c>
       <c r="T17">
-        <v>0.1867275869413701</v>
+        <v>0.2113297314646944</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1526,52 +1526,52 @@
         <v>21</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>15.1634651188785</v>
+        <v>18.50602233333333</v>
       </c>
       <c r="H18">
-        <v>15.1634651188785</v>
+        <v>55.518067</v>
       </c>
       <c r="I18">
-        <v>0.1953740504221851</v>
+        <v>0.2214825282439052</v>
       </c>
       <c r="J18">
-        <v>0.1953740504221851</v>
+        <v>0.2221233137144781</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N18">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O18">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P18">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q18">
-        <v>64.25792681036909</v>
+        <v>88.48900708780367</v>
       </c>
       <c r="R18">
-        <v>64.25792681036909</v>
+        <v>796.401063790233</v>
       </c>
       <c r="S18">
-        <v>0.002623358967323621</v>
+        <v>0.003057874070718741</v>
       </c>
       <c r="T18">
-        <v>0.002623358967323621</v>
+        <v>0.0030760483433409</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1588,52 +1588,52 @@
         <v>22</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>15.1634651188785</v>
+        <v>18.50602233333333</v>
       </c>
       <c r="H19">
-        <v>15.1634651188785</v>
+        <v>55.518067</v>
       </c>
       <c r="I19">
-        <v>0.1953740504221851</v>
+        <v>0.2214825282439052</v>
       </c>
       <c r="J19">
-        <v>0.1953740504221851</v>
+        <v>0.2221233137144781</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N19">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O19">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P19">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q19">
-        <v>32.9809919372052</v>
+        <v>94.27653733161155</v>
       </c>
       <c r="R19">
-        <v>32.9809919372052</v>
+        <v>848.488835984504</v>
       </c>
       <c r="S19">
-        <v>0.001346463934403401</v>
+        <v>0.003257871101406181</v>
       </c>
       <c r="T19">
-        <v>0.001346463934403401</v>
+        <v>0.003277234043174052</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,52 +1650,52 @@
         <v>23</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>15.1634651188785</v>
+        <v>18.50602233333333</v>
       </c>
       <c r="H20">
-        <v>15.1634651188785</v>
+        <v>55.518067</v>
       </c>
       <c r="I20">
-        <v>0.1953740504221851</v>
+        <v>0.2214825282439052</v>
       </c>
       <c r="J20">
-        <v>0.1953740504221851</v>
+        <v>0.2221233137144781</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N20">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O20">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P20">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q20">
-        <v>67.50168512281665</v>
+        <v>88.86553678687177</v>
       </c>
       <c r="R20">
-        <v>67.50168512281665</v>
+        <v>799.7898310818459</v>
       </c>
       <c r="S20">
-        <v>0.002755786869672576</v>
+        <v>0.003070885634996927</v>
       </c>
       <c r="T20">
-        <v>0.002755786869672576</v>
+        <v>0.003089137240992196</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,52 +1712,52 @@
         <v>24</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>15.1634651188785</v>
+        <v>18.50602233333333</v>
       </c>
       <c r="H21">
-        <v>15.1634651188785</v>
+        <v>55.518067</v>
       </c>
       <c r="I21">
-        <v>0.1953740504221851</v>
+        <v>0.2214825282439052</v>
       </c>
       <c r="J21">
-        <v>0.1953740504221851</v>
+        <v>0.2221233137144781</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N21">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O21">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P21">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q21">
-        <v>47.05039554650172</v>
+        <v>58.30355646956867</v>
       </c>
       <c r="R21">
-        <v>47.05039554650172</v>
+        <v>349.821338817412</v>
       </c>
       <c r="S21">
-        <v>0.001920853709415368</v>
+        <v>0.002014769285207096</v>
       </c>
       <c r="T21">
-        <v>0.001920853709415368</v>
+        <v>0.001351162622276488</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,52 +1774,52 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.721804439236141</v>
+        <v>0.723125</v>
       </c>
       <c r="H22">
-        <v>0.721804439236141</v>
+        <v>1.44625</v>
       </c>
       <c r="I22">
-        <v>0.009300107580997878</v>
+        <v>0.008654455849644799</v>
       </c>
       <c r="J22">
-        <v>0.009300107580997878</v>
+        <v>0.005786329744866009</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>301.63311320103</v>
+        <v>328.5062863333333</v>
       </c>
       <c r="N22">
-        <v>301.63311320103</v>
+        <v>985.518859</v>
       </c>
       <c r="O22">
-        <v>0.9557440537157788</v>
+        <v>0.9485223498994318</v>
       </c>
       <c r="P22">
-        <v>0.9557440537157788</v>
+        <v>0.9514072518130269</v>
       </c>
       <c r="Q22">
-        <v>217.7201201291209</v>
+        <v>237.5511083047917</v>
       </c>
       <c r="R22">
-        <v>217.7201201291209</v>
+        <v>1425.30664982875</v>
       </c>
       <c r="S22">
-        <v>0.008888522519455757</v>
+        <v>0.008208944799605969</v>
       </c>
       <c r="T22">
-        <v>0.008888522519455757</v>
+        <v>0.005505156080646943</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,52 +1836,52 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.721804439236141</v>
+        <v>0.723125</v>
       </c>
       <c r="H23">
-        <v>0.721804439236141</v>
+        <v>1.44625</v>
       </c>
       <c r="I23">
-        <v>0.009300107580997878</v>
+        <v>0.008654455849644799</v>
       </c>
       <c r="J23">
-        <v>0.009300107580997878</v>
+        <v>0.005786329744866009</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>4.23768091967106</v>
+        <v>4.781633</v>
       </c>
       <c r="N23">
-        <v>4.23768091967106</v>
+        <v>14.344899</v>
       </c>
       <c r="O23">
-        <v>0.01342736643712298</v>
+        <v>0.01380638958279946</v>
       </c>
       <c r="P23">
-        <v>0.01342736643712298</v>
+        <v>0.0138483812973136</v>
       </c>
       <c r="Q23">
-        <v>3.058776899884864</v>
+        <v>3.457718363125</v>
       </c>
       <c r="R23">
-        <v>3.058776899884864</v>
+        <v>20.74631017875</v>
       </c>
       <c r="S23">
-        <v>0.0001248759523947239</v>
+        <v>0.0001194867890873338</v>
       </c>
       <c r="T23">
-        <v>0.0001248759523947239</v>
+        <v>8.01313006188918E-05</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,52 +1898,52 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.721804439236141</v>
+        <v>0.723125</v>
       </c>
       <c r="H24">
-        <v>0.721804439236141</v>
+        <v>1.44625</v>
       </c>
       <c r="I24">
-        <v>0.009300107580997878</v>
+        <v>0.008654455849644799</v>
       </c>
       <c r="J24">
-        <v>0.009300107580997878</v>
+        <v>0.005786329744866009</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.17503002635881</v>
+        <v>5.094370666666666</v>
       </c>
       <c r="N24">
-        <v>2.17503002635881</v>
+        <v>15.283112</v>
       </c>
       <c r="O24">
-        <v>0.006891723499071744</v>
+        <v>0.0147093819419403</v>
       </c>
       <c r="P24">
-        <v>0.006891723499071744</v>
+        <v>0.01475412008028422</v>
       </c>
       <c r="Q24">
-        <v>1.56994632849769</v>
+        <v>3.683866788333333</v>
       </c>
       <c r="R24">
-        <v>1.56994632849769</v>
+        <v>22.10320073</v>
       </c>
       <c r="S24">
-        <v>6.409376995985835E-05</v>
+        <v>0.0001273016965920848</v>
       </c>
       <c r="T24">
-        <v>6.409376995985835E-05</v>
+        <v>8.537220387987344E-05</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,52 +1960,52 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.721804439236141</v>
+        <v>0.723125</v>
       </c>
       <c r="H25">
-        <v>0.721804439236141</v>
+        <v>1.44625</v>
       </c>
       <c r="I25">
-        <v>0.009300107580997878</v>
+        <v>0.008654455849644799</v>
       </c>
       <c r="J25">
-        <v>0.009300107580997878</v>
+        <v>0.005786329744866009</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>4.4516002505771</v>
+        <v>4.801979333333333</v>
       </c>
       <c r="N25">
-        <v>4.4516002505771</v>
+        <v>14.405938</v>
       </c>
       <c r="O25">
-        <v>0.01410518369106633</v>
+        <v>0.01386513717061757</v>
       </c>
       <c r="P25">
-        <v>0.01410518369106633</v>
+        <v>0.01390730756413546</v>
       </c>
       <c r="Q25">
-        <v>3.213184822571269</v>
+        <v>3.472431305416666</v>
       </c>
       <c r="R25">
-        <v>3.213184822571269</v>
+        <v>20.8345878325</v>
       </c>
       <c r="S25">
-        <v>0.0001311797257766537</v>
+        <v>0.0001199952174923788</v>
       </c>
       <c r="T25">
-        <v>0.0001311797257766537</v>
+        <v>8.047226742935707E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,52 +2022,52 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.721804439236141</v>
+        <v>0.723125</v>
       </c>
       <c r="H26">
-        <v>0.721804439236141</v>
+        <v>1.44625</v>
       </c>
       <c r="I26">
-        <v>0.009300107580997878</v>
+        <v>0.008654455849644799</v>
       </c>
       <c r="J26">
-        <v>0.009300107580997878</v>
+        <v>0.005786329744866009</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>3.10287887218628</v>
+        <v>3.150518</v>
       </c>
       <c r="N26">
-        <v>3.10287887218628</v>
+        <v>6.301036</v>
       </c>
       <c r="O26">
-        <v>0.009831672656960238</v>
+        <v>0.00909674140521077</v>
       </c>
       <c r="P26">
-        <v>0.009831672656960238</v>
+        <v>0.006082939245239696</v>
       </c>
       <c r="Q26">
-        <v>2.239671744356087</v>
+        <v>2.27821832875</v>
       </c>
       <c r="R26">
-        <v>2.239671744356087</v>
+        <v>9.112873315</v>
       </c>
       <c r="S26">
-        <v>9.143561341088546E-05</v>
+        <v>7.872734686703239E-05</v>
       </c>
       <c r="T26">
-        <v>9.143561341088546E-05</v>
+        <v>3.519789229094324E-05</v>
       </c>
     </row>
   </sheetData>
